--- a/Reporte Comentarios - (2017-11-20).xlsx
+++ b/Reporte Comentarios - (2017-11-20).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Id-On Air</t>
   </si>
@@ -50,31 +50,43 @@
     <t>NOC</t>
   </si>
   <si>
-    <t>BOG.Alameda</t>
-  </si>
-  <si>
-    <t>2G</t>
+    <t>BOG.7 de Agosto</t>
+  </si>
+  <si>
+    <t>2G/3G</t>
+  </si>
+  <si>
+    <t>2600MHz</t>
+  </si>
+  <si>
+    <t>Cambio de HW para MC - Upgrade Modulos RF</t>
+  </si>
+  <si>
+    <t>Seguimiento FO - Notificacion</t>
+  </si>
+  <si>
+    <t>asfasdfasdfasdf</t>
+  </si>
+  <si>
+    <t>2017-11-20 12:18:37</t>
+  </si>
+  <si>
+    <t>FABIO NELSON GARCIA TORRES</t>
+  </si>
+  <si>
+    <t>Claro</t>
+  </si>
+  <si>
+    <t>3G</t>
   </si>
   <si>
     <t>850MHz</t>
   </si>
   <si>
-    <t>Cambio de HW LTE</t>
-  </si>
-  <si>
-    <t>Seguimiento FO - Notificacion</t>
-  </si>
-  <si>
-    <t>safasdfdafsdf</t>
-  </si>
-  <si>
-    <t>2017-11-20 10:39:58</t>
-  </si>
-  <si>
-    <t>FABIO NELSON GARCIA TORRES</t>
-  </si>
-  <si>
-    <t>Claro</t>
+    <t xml:space="preserve">Adecuaciones SE </t>
+  </si>
+  <si>
+    <t>2017-11-20 13:55:23</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +503,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -522,6 +534,40 @@
       </c>
       <c r="K2"/>
       <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1416</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>12341324</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
